--- a/biology/Zoologie/Cephalotes_depressus/Cephalotes_depressus.xlsx
+++ b/biology/Zoologie/Cephalotes_depressus/Cephalotes_depressus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes depressus est une espèce de fourmis arboricoles du genre Cephalotes[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes depressus est une espèce de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native de tout le bassin amazonien, depuis le sud du Brésil jusqu'au Venezuela[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native de tout le bassin amazonien, depuis le sud du Brésil jusqu'au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Denditorsum fut décrite et classifiée pour la première fois par l'entomologiste allemand Johann Christoph Friedrich Klug en 1824.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
